--- a/仕様書/進捗管理_200709.xlsx
+++ b/仕様書/進捗管理_200709.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kensyu\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cosmowinds365-my.sharepoint.com/personal/a_tanaka_cosmowinds_jp/Documents/研修/sinkeisuizyaku/仕様書/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C110E2E8-A483-4B44-ACFC-C07B6F843E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{C110E2E8-A483-4B44-ACFC-C07B6F843E67}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B4205460-9C16-4771-8D76-ED7B46DFB5CE}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,6 +1015,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1577,10 +1584,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1658,8 +1668,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1675,6 +1683,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1687,16 +1707,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1711,7 +1731,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1720,44 +1749,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="36" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="34" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2039,8 +2050,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2055,58 +2066,58 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="56"/>
+      <c r="G1" s="54"/>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="56"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="56"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="56"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="56"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="56"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="12" spans="1:22" ht="19.5" thickBot="1">
       <c r="A12" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="56"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:22" ht="19.5" thickBot="1">
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="66" t="s">
+      <c r="C13" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="67"/>
+      <c r="D13" s="77"/>
       <c r="E13" s="6" t="s">
         <v>10</v>
       </c>
@@ -2166,10 +2177,10 @@
       <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="69"/>
+      <c r="D14" s="79"/>
       <c r="E14" s="16" t="s">
         <v>28</v>
       </c>
@@ -2204,10 +2215,10 @@
       <c r="B15" s="8">
         <v>2</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="69"/>
       <c r="E15" s="17" t="s">
         <v>28</v>
       </c>
@@ -2242,10 +2253,10 @@
       <c r="B16" s="8">
         <v>3</v>
       </c>
-      <c r="C16" s="58" t="s">
+      <c r="C16" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="69"/>
       <c r="E16" s="17" t="s">
         <v>33</v>
       </c>
@@ -2260,7 +2271,7 @@
         <v>44020</v>
       </c>
       <c r="J16" s="15">
-        <f>J41</f>
+        <f t="shared" ref="J16:J30" si="1">J41</f>
         <v>100</v>
       </c>
       <c r="K16" s="12"/>
@@ -2280,10 +2291,10 @@
       <c r="B17" s="8">
         <v>4</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="59"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="17" t="s">
         <v>36</v>
       </c>
@@ -2298,7 +2309,7 @@
         <v>44020</v>
       </c>
       <c r="J17" s="15">
-        <f>J42</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K17" s="12"/>
@@ -2318,10 +2329,10 @@
       <c r="B18" s="8">
         <v>5</v>
       </c>
-      <c r="C18" s="58" t="s">
+      <c r="C18" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="59"/>
+      <c r="D18" s="69"/>
       <c r="E18" s="17" t="s">
         <v>38</v>
       </c>
@@ -2336,7 +2347,7 @@
         <v>44020</v>
       </c>
       <c r="J18" s="15">
-        <f>J43</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K18" s="12"/>
@@ -2356,10 +2367,10 @@
       <c r="B19" s="8">
         <v>6</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="69"/>
       <c r="E19" s="17" t="s">
         <v>28</v>
       </c>
@@ -2374,7 +2385,7 @@
         <v>44018</v>
       </c>
       <c r="J19" s="15">
-        <f>J44</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K19" s="12"/>
@@ -2394,10 +2405,10 @@
       <c r="B20" s="8">
         <v>7</v>
       </c>
-      <c r="C20" s="58" t="s">
+      <c r="C20" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="69"/>
       <c r="E20" s="17" t="s">
         <v>41</v>
       </c>
@@ -2412,7 +2423,7 @@
         <v>44020</v>
       </c>
       <c r="J20" s="15">
-        <f>J45</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K20" s="12"/>
@@ -2432,10 +2443,10 @@
       <c r="B21" s="8">
         <v>8</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="59"/>
+      <c r="D21" s="69"/>
       <c r="E21" s="17" t="s">
         <v>41</v>
       </c>
@@ -2450,8 +2461,8 @@
         <v>44026</v>
       </c>
       <c r="J21" s="15">
-        <f>J46</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="1"/>
@@ -2470,10 +2481,10 @@
       <c r="B22" s="8">
         <v>9</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="59"/>
+      <c r="D22" s="69"/>
       <c r="E22" s="17" t="s">
         <v>41</v>
       </c>
@@ -2488,7 +2499,7 @@
         <v>44026</v>
       </c>
       <c r="J22" s="15">
-        <f>J47</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K22" s="10"/>
@@ -2508,10 +2519,10 @@
       <c r="B23" s="8">
         <v>10</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="59"/>
+      <c r="D23" s="69"/>
       <c r="E23" s="17" t="s">
         <v>36</v>
       </c>
@@ -2526,8 +2537,8 @@
         <v>44022</v>
       </c>
       <c r="J23" s="15">
-        <f>J48</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>89.999999999999986</v>
       </c>
       <c r="K23" s="10"/>
       <c r="L23" s="1"/>
@@ -2546,10 +2557,10 @@
       <c r="B24" s="8">
         <v>11</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="17" t="s">
         <v>36</v>
       </c>
@@ -2564,8 +2575,8 @@
         <v>44026</v>
       </c>
       <c r="J24" s="15">
-        <f>J49</f>
-        <v>50</v>
+        <f t="shared" si="1"/>
+        <v>70</v>
       </c>
       <c r="K24" s="27"/>
       <c r="L24" s="28"/>
@@ -2584,10 +2595,10 @@
       <c r="B25" s="8">
         <v>12</v>
       </c>
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="65"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="24" t="s">
         <v>33</v>
       </c>
@@ -2602,8 +2613,8 @@
         <v>44022</v>
       </c>
       <c r="J25" s="15">
-        <f>J50</f>
-        <v>100</v>
+        <f t="shared" si="1"/>
+        <v>120</v>
       </c>
       <c r="K25" s="27"/>
       <c r="L25" s="28"/>
@@ -2622,10 +2633,10 @@
       <c r="B26" s="8">
         <v>13</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="24" t="s">
         <v>33</v>
       </c>
@@ -2640,8 +2651,8 @@
         <v>44026</v>
       </c>
       <c r="J26" s="15">
-        <f>J51</f>
-        <v>80</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="K26" s="27"/>
       <c r="L26" s="28"/>
@@ -2660,10 +2671,10 @@
       <c r="B27" s="8">
         <v>14</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="59"/>
+      <c r="D27" s="69"/>
       <c r="E27" s="19" t="s">
         <v>38</v>
       </c>
@@ -2678,7 +2689,7 @@
         <v>44026</v>
       </c>
       <c r="J27" s="15">
-        <f>J52</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
       <c r="K27" s="10"/>
@@ -2698,10 +2709,10 @@
       <c r="B28" s="8">
         <v>15</v>
       </c>
-      <c r="C28" s="58" t="s">
+      <c r="C28" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="69"/>
       <c r="E28" s="19" t="s">
         <v>52</v>
       </c>
@@ -2716,8 +2727,8 @@
         <v>44028</v>
       </c>
       <c r="J28" s="15">
-        <f>J53</f>
-        <v>30</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
       <c r="K28" s="10"/>
       <c r="L28" s="1"/>
@@ -2736,10 +2747,10 @@
       <c r="B29" s="8">
         <v>16</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="19" t="s">
         <v>28</v>
       </c>
@@ -2754,7 +2765,7 @@
         <v>44028</v>
       </c>
       <c r="J29" s="15">
-        <f>J54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K29" s="10"/>
@@ -2774,10 +2785,10 @@
       <c r="B30" s="8">
         <v>17</v>
       </c>
-      <c r="C30" s="58" t="s">
+      <c r="C30" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2785,14 +2796,14 @@
       <c r="G30" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="49">
         <v>44021</v>
       </c>
       <c r="I30" s="42">
         <v>44022</v>
       </c>
       <c r="J30" s="15">
-        <f>J55</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K30" s="10"/>
@@ -2810,8 +2821,8 @@
     </row>
     <row r="31" spans="2:22">
       <c r="B31" s="8"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="69"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="19"/>
@@ -2833,8 +2844,8 @@
     </row>
     <row r="32" spans="2:22">
       <c r="B32" s="8"/>
-      <c r="C32" s="58"/>
-      <c r="D32" s="59"/>
+      <c r="C32" s="68"/>
+      <c r="D32" s="69"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="19"/>
@@ -2856,8 +2867,8 @@
     </row>
     <row r="33" spans="1:25">
       <c r="B33" s="8"/>
-      <c r="C33" s="58"/>
-      <c r="D33" s="59"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="69"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="19"/>
@@ -2879,8 +2890,8 @@
     </row>
     <row r="34" spans="1:25" ht="19.5" thickBot="1">
       <c r="B34" s="9"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="38"/>
@@ -2904,16 +2915,16 @@
       <c r="A37" t="s">
         <v>55</v>
       </c>
-      <c r="G37" s="56"/>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" spans="1:25" ht="19.5" thickBot="1">
       <c r="B38" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="66" t="s">
+      <c r="C38" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="67"/>
+      <c r="D38" s="77"/>
       <c r="E38" s="6" t="s">
         <v>10</v>
       </c>
@@ -2932,7 +2943,7 @@
       <c r="J38" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K38" s="85" t="s">
+      <c r="K38" s="60" t="s">
         <v>15</v>
       </c>
       <c r="L38" s="11" t="s">
@@ -2973,10 +2984,10 @@
       <c r="B39" s="7">
         <v>1</v>
       </c>
-      <c r="C39" s="93" t="s">
+      <c r="C39" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="94"/>
+      <c r="D39" s="81"/>
       <c r="E39" s="16" t="s">
         <v>28</v>
       </c>
@@ -2990,34 +3001,35 @@
       <c r="I39" s="41">
         <v>44018</v>
       </c>
-      <c r="J39" s="74">
+      <c r="J39" s="86">
+        <f t="shared" ref="J39:J45" si="2">SUM(K39:U39)*100</f>
         <v>100</v>
       </c>
-      <c r="K39" s="87">
+      <c r="K39" s="62">
         <v>0.8</v>
       </c>
-      <c r="L39" s="88">
+      <c r="L39" s="63">
         <v>0.2</v>
       </c>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="5"/>
-      <c r="Q39" s="5"/>
-      <c r="R39" s="4"/>
-      <c r="S39" s="4"/>
-      <c r="T39" s="4"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="31"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="89"/>
+      <c r="Q39" s="89"/>
+      <c r="R39" s="88"/>
+      <c r="S39" s="88"/>
+      <c r="T39" s="88"/>
+      <c r="U39" s="88"/>
+      <c r="V39" s="90"/>
     </row>
     <row r="40" spans="1:25">
       <c r="B40" s="8">
         <v>2</v>
       </c>
-      <c r="C40" s="58" t="s">
+      <c r="C40" s="68" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="59"/>
+      <c r="D40" s="69"/>
       <c r="E40" s="17" t="s">
         <v>28</v>
       </c>
@@ -3031,36 +3043,37 @@
       <c r="I40" s="42">
         <v>44020</v>
       </c>
-      <c r="J40" s="75">
+      <c r="J40" s="86">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K40" s="89">
+      <c r="K40" s="64">
         <v>0.5</v>
       </c>
-      <c r="L40" s="90">
+      <c r="L40" s="65">
         <v>0.3</v>
       </c>
-      <c r="M40" s="90">
+      <c r="M40" s="65">
         <v>0.2</v>
       </c>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="2"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="32"/>
+      <c r="N40" s="91"/>
+      <c r="O40" s="91"/>
+      <c r="P40" s="92"/>
+      <c r="Q40" s="92"/>
+      <c r="R40" s="91"/>
+      <c r="S40" s="91"/>
+      <c r="T40" s="91"/>
+      <c r="U40" s="91"/>
+      <c r="V40" s="93"/>
     </row>
     <row r="41" spans="1:25">
       <c r="B41" s="8">
         <v>3</v>
       </c>
-      <c r="C41" s="58" t="s">
+      <c r="C41" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="69"/>
       <c r="E41" s="17" t="s">
         <v>33</v>
       </c>
@@ -3074,32 +3087,33 @@
       <c r="I41" s="42">
         <v>44020</v>
       </c>
-      <c r="J41" s="76">
+      <c r="J41" s="86">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K41" s="91">
+      <c r="K41" s="66">
         <v>1</v>
       </c>
-      <c r="L41" s="47"/>
-      <c r="M41" s="47"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="2"/>
-      <c r="Q41" s="2"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="32"/>
+      <c r="L41" s="87"/>
+      <c r="M41" s="87"/>
+      <c r="N41" s="91"/>
+      <c r="O41" s="91"/>
+      <c r="P41" s="92"/>
+      <c r="Q41" s="92"/>
+      <c r="R41" s="91"/>
+      <c r="S41" s="91"/>
+      <c r="T41" s="91"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="93"/>
     </row>
     <row r="42" spans="1:25">
       <c r="B42" s="8">
         <v>4</v>
       </c>
-      <c r="C42" s="58" t="s">
+      <c r="C42" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="69"/>
       <c r="E42" s="17" t="s">
         <v>36</v>
       </c>
@@ -3113,26 +3127,27 @@
       <c r="I42" s="42">
         <v>44020</v>
       </c>
-      <c r="J42" s="75">
+      <c r="J42" s="86">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K42" s="89">
+      <c r="K42" s="64">
         <v>0.5</v>
       </c>
-      <c r="L42" s="90">
+      <c r="L42" s="65">
         <v>0.5</v>
       </c>
-      <c r="M42" s="47"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="2"/>
-      <c r="Q42" s="2"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="32"/>
-      <c r="X42" s="86"/>
+      <c r="M42" s="87"/>
+      <c r="N42" s="91"/>
+      <c r="O42" s="91"/>
+      <c r="P42" s="92"/>
+      <c r="Q42" s="92"/>
+      <c r="R42" s="91"/>
+      <c r="S42" s="91"/>
+      <c r="T42" s="91"/>
+      <c r="U42" s="91"/>
+      <c r="V42" s="93"/>
+      <c r="X42" s="61"/>
       <c r="Y42" t="s">
         <v>56</v>
       </c>
@@ -3141,10 +3156,10 @@
       <c r="B43" s="8">
         <v>5</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="59"/>
+      <c r="D43" s="69"/>
       <c r="E43" s="17" t="s">
         <v>38</v>
       </c>
@@ -3158,32 +3173,33 @@
       <c r="I43" s="42">
         <v>44020</v>
       </c>
-      <c r="J43" s="75">
+      <c r="J43" s="86">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K43" s="91">
+      <c r="K43" s="66">
         <v>1</v>
       </c>
-      <c r="L43" s="47"/>
-      <c r="M43" s="47"/>
-      <c r="N43" s="47"/>
-      <c r="O43" s="47"/>
-      <c r="P43" s="2"/>
-      <c r="Q43" s="2"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="32"/>
+      <c r="L43" s="87"/>
+      <c r="M43" s="87"/>
+      <c r="N43" s="87"/>
+      <c r="O43" s="87"/>
+      <c r="P43" s="92"/>
+      <c r="Q43" s="92"/>
+      <c r="R43" s="91"/>
+      <c r="S43" s="91"/>
+      <c r="T43" s="91"/>
+      <c r="U43" s="91"/>
+      <c r="V43" s="93"/>
     </row>
     <row r="44" spans="1:25">
       <c r="B44" s="8">
         <v>6</v>
       </c>
-      <c r="C44" s="58" t="s">
+      <c r="C44" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="59"/>
+      <c r="D44" s="69"/>
       <c r="E44" s="17" t="s">
         <v>28</v>
       </c>
@@ -3197,24 +3213,25 @@
       <c r="I44" s="42">
         <v>44018</v>
       </c>
-      <c r="J44" s="75">
+      <c r="J44" s="86">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K44" s="91">
+      <c r="K44" s="66">
         <v>1</v>
       </c>
-      <c r="L44" s="47"/>
-      <c r="M44" s="47"/>
-      <c r="N44" s="47"/>
-      <c r="O44" s="47"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="32"/>
-      <c r="X44" s="52"/>
+      <c r="L44" s="87"/>
+      <c r="M44" s="87"/>
+      <c r="N44" s="87"/>
+      <c r="O44" s="87"/>
+      <c r="P44" s="92"/>
+      <c r="Q44" s="92"/>
+      <c r="R44" s="91"/>
+      <c r="S44" s="91"/>
+      <c r="T44" s="91"/>
+      <c r="U44" s="91"/>
+      <c r="V44" s="93"/>
+      <c r="X44" s="50"/>
       <c r="Y44" t="s">
         <v>57</v>
       </c>
@@ -3223,10 +3240,10 @@
       <c r="B45" s="8">
         <v>7</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D45" s="59"/>
+      <c r="D45" s="69"/>
       <c r="E45" s="17" t="s">
         <v>41</v>
       </c>
@@ -3240,32 +3257,33 @@
       <c r="I45" s="42">
         <v>44020</v>
       </c>
-      <c r="J45" s="75">
+      <c r="J45" s="86">
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="K45" s="91">
+      <c r="K45" s="66">
         <v>1</v>
       </c>
-      <c r="L45" s="47"/>
-      <c r="M45" s="47"/>
-      <c r="N45" s="47"/>
-      <c r="O45" s="47"/>
-      <c r="P45" s="2"/>
-      <c r="Q45" s="2"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="32"/>
+      <c r="L45" s="87"/>
+      <c r="M45" s="87"/>
+      <c r="N45" s="87"/>
+      <c r="O45" s="87"/>
+      <c r="P45" s="92"/>
+      <c r="Q45" s="92"/>
+      <c r="R45" s="91"/>
+      <c r="S45" s="91"/>
+      <c r="T45" s="91"/>
+      <c r="U45" s="91"/>
+      <c r="V45" s="93"/>
     </row>
     <row r="46" spans="1:25">
       <c r="B46" s="8">
         <v>8</v>
       </c>
-      <c r="C46" s="58" t="s">
+      <c r="C46" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="69"/>
       <c r="E46" s="17" t="s">
         <v>41</v>
       </c>
@@ -3279,26 +3297,29 @@
       <c r="I46" s="42">
         <v>44026</v>
       </c>
-      <c r="J46" s="75">
-        <v>30</v>
-      </c>
-      <c r="K46" s="82"/>
-      <c r="L46" s="47"/>
-      <c r="M46" s="79">
+      <c r="J46" s="86">
+        <f>SUM(K46:U46)*100</f>
+        <v>40</v>
+      </c>
+      <c r="K46" s="94"/>
+      <c r="L46" s="87"/>
+      <c r="M46" s="57">
         <v>0.2</v>
       </c>
-      <c r="N46" s="79">
+      <c r="N46" s="57">
         <v>0.1</v>
       </c>
-      <c r="O46" s="47"/>
-      <c r="P46" s="2"/>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="32"/>
-      <c r="X46" s="53"/>
+      <c r="O46" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="P46" s="92"/>
+      <c r="Q46" s="92"/>
+      <c r="R46" s="91"/>
+      <c r="S46" s="91"/>
+      <c r="T46" s="91"/>
+      <c r="U46" s="91"/>
+      <c r="V46" s="93"/>
+      <c r="X46" s="51"/>
       <c r="Y46" t="s">
         <v>58</v>
       </c>
@@ -3307,10 +3328,10 @@
       <c r="B47" s="8">
         <v>9</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="D47" s="59"/>
+      <c r="D47" s="69"/>
       <c r="E47" s="17" t="s">
         <v>41</v>
       </c>
@@ -3324,32 +3345,35 @@
       <c r="I47" s="42">
         <v>44026</v>
       </c>
-      <c r="J47" s="75">
+      <c r="J47" s="86">
+        <f t="shared" ref="J47:J55" si="3">SUM(K47:U47)*100</f>
         <v>10</v>
       </c>
-      <c r="K47" s="82"/>
-      <c r="L47" s="47"/>
-      <c r="M47" s="47"/>
+      <c r="K47" s="94"/>
+      <c r="L47" s="87"/>
+      <c r="M47" s="87"/>
       <c r="N47" s="46">
         <v>0.1</v>
       </c>
-      <c r="O47" s="47"/>
-      <c r="P47" s="2"/>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="47"/>
-      <c r="S47" s="47"/>
-      <c r="T47" s="47"/>
-      <c r="U47" s="47"/>
-      <c r="V47" s="32"/>
+      <c r="O47" s="46">
+        <v>0</v>
+      </c>
+      <c r="P47" s="92"/>
+      <c r="Q47" s="92"/>
+      <c r="R47" s="87"/>
+      <c r="S47" s="87"/>
+      <c r="T47" s="87"/>
+      <c r="U47" s="87"/>
+      <c r="V47" s="93"/>
     </row>
     <row r="48" spans="1:25">
       <c r="B48" s="8">
         <v>10</v>
       </c>
-      <c r="C48" s="58" t="s">
+      <c r="C48" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="D48" s="59"/>
+      <c r="D48" s="69"/>
       <c r="E48" s="17" t="s">
         <v>36</v>
       </c>
@@ -3363,36 +3387,39 @@
       <c r="I48" s="42">
         <v>44022</v>
       </c>
-      <c r="J48" s="75">
-        <v>80</v>
-      </c>
-      <c r="K48" s="82"/>
-      <c r="L48" s="79">
+      <c r="J48" s="86">
+        <f t="shared" si="3"/>
+        <v>89.999999999999986</v>
+      </c>
+      <c r="K48" s="94"/>
+      <c r="L48" s="57">
         <v>0.5</v>
       </c>
-      <c r="M48" s="79">
+      <c r="M48" s="57">
         <v>0.2</v>
       </c>
-      <c r="N48" s="79">
+      <c r="N48" s="57">
         <v>0.1</v>
       </c>
-      <c r="O48" s="47"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="47"/>
-      <c r="S48" s="47"/>
-      <c r="T48" s="47"/>
-      <c r="U48" s="47"/>
-      <c r="V48" s="32"/>
+      <c r="O48" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="P48" s="92"/>
+      <c r="Q48" s="92"/>
+      <c r="R48" s="87"/>
+      <c r="S48" s="87"/>
+      <c r="T48" s="87"/>
+      <c r="U48" s="87"/>
+      <c r="V48" s="93"/>
     </row>
     <row r="49" spans="2:22">
       <c r="B49" s="8">
         <v>11</v>
       </c>
-      <c r="C49" s="62" t="s">
+      <c r="C49" s="74" t="s">
         <v>47</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="75"/>
       <c r="E49" s="17" t="s">
         <v>36</v>
       </c>
@@ -3406,32 +3433,35 @@
       <c r="I49" s="42">
         <v>44026</v>
       </c>
-      <c r="J49" s="77">
-        <v>50</v>
-      </c>
-      <c r="K49" s="82"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="J49" s="86">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="K49" s="94"/>
+      <c r="L49" s="91"/>
+      <c r="M49" s="91"/>
       <c r="N49" s="46">
         <v>0.5</v>
       </c>
-      <c r="O49" s="47"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="48"/>
-      <c r="S49" s="48"/>
-      <c r="T49" s="48"/>
-      <c r="U49" s="48"/>
-      <c r="V49" s="33"/>
+      <c r="O49" s="46">
+        <v>0.2</v>
+      </c>
+      <c r="P49" s="92"/>
+      <c r="Q49" s="92"/>
+      <c r="R49" s="95"/>
+      <c r="S49" s="95"/>
+      <c r="T49" s="95"/>
+      <c r="U49" s="95"/>
+      <c r="V49" s="96"/>
     </row>
     <row r="50" spans="2:22">
       <c r="B50" s="8">
         <v>12</v>
       </c>
-      <c r="C50" s="64" t="s">
+      <c r="C50" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="24" t="s">
         <v>33</v>
       </c>
@@ -3445,36 +3475,39 @@
       <c r="I50" s="42">
         <v>44022</v>
       </c>
-      <c r="J50" s="77">
-        <v>100</v>
-      </c>
-      <c r="K50" s="82"/>
-      <c r="L50" s="90">
+      <c r="J50" s="86">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="K50" s="94"/>
+      <c r="L50" s="65">
         <v>0.6</v>
       </c>
-      <c r="M50" s="90">
+      <c r="M50" s="65">
         <v>0.2</v>
       </c>
-      <c r="N50" s="90">
+      <c r="N50" s="65">
         <v>0.2</v>
       </c>
-      <c r="O50" s="47"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="48"/>
-      <c r="S50" s="48"/>
-      <c r="T50" s="48"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="33"/>
+      <c r="O50" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="P50" s="92"/>
+      <c r="Q50" s="92"/>
+      <c r="R50" s="95"/>
+      <c r="S50" s="95"/>
+      <c r="T50" s="95"/>
+      <c r="U50" s="95"/>
+      <c r="V50" s="96"/>
     </row>
     <row r="51" spans="2:22">
       <c r="B51" s="8">
         <v>13</v>
       </c>
-      <c r="C51" s="62" t="s">
+      <c r="C51" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="63"/>
+      <c r="D51" s="75"/>
       <c r="E51" s="24" t="s">
         <v>33</v>
       </c>
@@ -3488,34 +3521,37 @@
       <c r="I51" s="42">
         <v>44026</v>
       </c>
-      <c r="J51" s="77">
-        <v>80</v>
-      </c>
-      <c r="K51" s="82"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="79">
+      <c r="J51" s="86">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="K51" s="94"/>
+      <c r="L51" s="91"/>
+      <c r="M51" s="65">
         <v>0.5</v>
       </c>
-      <c r="N51" s="79">
+      <c r="N51" s="65">
         <v>0.3</v>
       </c>
-      <c r="O51" s="47"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="48"/>
-      <c r="S51" s="48"/>
-      <c r="T51" s="48"/>
-      <c r="U51" s="48"/>
-      <c r="V51" s="33"/>
+      <c r="O51" s="67">
+        <v>0.2</v>
+      </c>
+      <c r="P51" s="92"/>
+      <c r="Q51" s="92"/>
+      <c r="R51" s="95"/>
+      <c r="S51" s="95"/>
+      <c r="T51" s="95"/>
+      <c r="U51" s="95"/>
+      <c r="V51" s="96"/>
     </row>
     <row r="52" spans="2:22">
       <c r="B52" s="8">
         <v>14</v>
       </c>
-      <c r="C52" s="58" t="s">
+      <c r="C52" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="D52" s="59"/>
+      <c r="D52" s="69"/>
       <c r="E52" s="19" t="s">
         <v>38</v>
       </c>
@@ -3529,36 +3565,39 @@
       <c r="I52" s="42">
         <v>44026</v>
       </c>
-      <c r="J52" s="39">
+      <c r="J52" s="86">
+        <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="K52" s="82"/>
-      <c r="L52" s="80">
+      <c r="K52" s="94"/>
+      <c r="L52" s="58">
         <v>0.6</v>
       </c>
-      <c r="M52" s="80">
+      <c r="M52" s="58">
         <v>0.05</v>
       </c>
-      <c r="N52" s="80">
+      <c r="N52" s="58">
         <v>0.1</v>
       </c>
-      <c r="O52" s="47"/>
-      <c r="P52" s="2"/>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="47"/>
-      <c r="S52" s="47"/>
-      <c r="T52" s="47"/>
-      <c r="U52" s="47"/>
-      <c r="V52" s="32"/>
+      <c r="O52" s="58">
+        <v>0</v>
+      </c>
+      <c r="P52" s="92"/>
+      <c r="Q52" s="92"/>
+      <c r="R52" s="87"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="87"/>
+      <c r="V52" s="93"/>
     </row>
     <row r="53" spans="2:22">
       <c r="B53" s="8">
         <v>15</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="59"/>
+      <c r="D53" s="69"/>
       <c r="E53" s="19" t="s">
         <v>52</v>
       </c>
@@ -3572,32 +3611,35 @@
       <c r="I53" s="42">
         <v>44028</v>
       </c>
-      <c r="J53" s="39">
-        <v>30</v>
-      </c>
-      <c r="K53" s="82"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="J53" s="86">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="K53" s="94"/>
+      <c r="L53" s="91"/>
+      <c r="M53" s="91"/>
       <c r="N53" s="46">
         <v>0.3</v>
       </c>
-      <c r="O53" s="47"/>
-      <c r="P53" s="2"/>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="47"/>
-      <c r="S53" s="47"/>
-      <c r="T53" s="47"/>
-      <c r="U53" s="47"/>
-      <c r="V53" s="32"/>
+      <c r="O53" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="P53" s="92"/>
+      <c r="Q53" s="92"/>
+      <c r="R53" s="87"/>
+      <c r="S53" s="87"/>
+      <c r="T53" s="87"/>
+      <c r="U53" s="87"/>
+      <c r="V53" s="93"/>
     </row>
     <row r="54" spans="2:22">
       <c r="B54" s="8">
         <v>16</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="59"/>
+      <c r="D54" s="69"/>
       <c r="E54" s="19" t="s">
         <v>28</v>
       </c>
@@ -3611,30 +3653,31 @@
       <c r="I54" s="42">
         <v>44028</v>
       </c>
-      <c r="J54" s="39">
+      <c r="J54" s="86">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K54" s="82"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="47"/>
-      <c r="S54" s="47"/>
-      <c r="T54" s="47"/>
-      <c r="U54" s="47"/>
-      <c r="V54" s="32"/>
+      <c r="K54" s="94"/>
+      <c r="L54" s="91"/>
+      <c r="M54" s="91"/>
+      <c r="N54" s="91"/>
+      <c r="O54" s="91"/>
+      <c r="P54" s="92"/>
+      <c r="Q54" s="92"/>
+      <c r="R54" s="87"/>
+      <c r="S54" s="87"/>
+      <c r="T54" s="87"/>
+      <c r="U54" s="87"/>
+      <c r="V54" s="93"/>
     </row>
     <row r="55" spans="2:22">
       <c r="B55" s="8">
         <v>17</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="D55" s="59"/>
+      <c r="D55" s="69"/>
       <c r="E55" s="19" t="s">
         <v>28</v>
       </c>
@@ -3642,124 +3685,156 @@
       <c r="G55" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H55" s="51">
+      <c r="H55" s="49">
         <v>44021</v>
       </c>
       <c r="I55" s="42">
         <v>44022</v>
       </c>
-      <c r="J55" s="39">
+      <c r="J55" s="86">
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="K55" s="82"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="92">
+      <c r="K55" s="94"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="67">
         <v>1</v>
       </c>
-      <c r="O55" s="1"/>
-      <c r="P55" s="2"/>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="47"/>
-      <c r="S55" s="47"/>
-      <c r="T55" s="47"/>
-      <c r="U55" s="47"/>
-      <c r="V55" s="32"/>
+      <c r="O55" s="91"/>
+      <c r="P55" s="92"/>
+      <c r="Q55" s="92"/>
+      <c r="R55" s="87"/>
+      <c r="S55" s="87"/>
+      <c r="T55" s="87"/>
+      <c r="U55" s="87"/>
+      <c r="V55" s="93"/>
     </row>
     <row r="56" spans="2:22">
       <c r="B56" s="8"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="59"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="69"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="19"/>
       <c r="H56" s="8"/>
       <c r="I56" s="39"/>
       <c r="J56" s="39"/>
-      <c r="K56" s="82"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1"/>
-      <c r="P56" s="2"/>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="1"/>
-      <c r="T56" s="1"/>
-      <c r="U56" s="1"/>
-      <c r="V56" s="32"/>
+      <c r="K56" s="94"/>
+      <c r="L56" s="91"/>
+      <c r="M56" s="91"/>
+      <c r="N56" s="91"/>
+      <c r="O56" s="91"/>
+      <c r="P56" s="92"/>
+      <c r="Q56" s="92"/>
+      <c r="R56" s="91"/>
+      <c r="S56" s="91"/>
+      <c r="T56" s="91"/>
+      <c r="U56" s="91"/>
+      <c r="V56" s="93"/>
     </row>
     <row r="57" spans="2:22">
       <c r="B57" s="8"/>
-      <c r="C57" s="58"/>
-      <c r="D57" s="59"/>
+      <c r="C57" s="68"/>
+      <c r="D57" s="69"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
       <c r="G57" s="19"/>
       <c r="H57" s="8"/>
       <c r="I57" s="39"/>
-      <c r="J57" s="78"/>
-      <c r="K57" s="82"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
-      <c r="P57" s="2"/>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="1"/>
-      <c r="T57" s="1"/>
-      <c r="U57" s="1"/>
-      <c r="V57" s="32"/>
+      <c r="J57" s="56"/>
+      <c r="K57" s="94"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="91"/>
+      <c r="N57" s="91"/>
+      <c r="O57" s="91"/>
+      <c r="P57" s="92"/>
+      <c r="Q57" s="92"/>
+      <c r="R57" s="91"/>
+      <c r="S57" s="91"/>
+      <c r="T57" s="91"/>
+      <c r="U57" s="91"/>
+      <c r="V57" s="93"/>
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="8"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="59"/>
+      <c r="C58" s="68"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="19"/>
       <c r="H58" s="8"/>
       <c r="I58" s="39"/>
       <c r="J58" s="39"/>
-      <c r="K58" s="82"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="1"/>
-      <c r="S58" s="1"/>
-      <c r="T58" s="1"/>
-      <c r="U58" s="1"/>
-      <c r="V58" s="32"/>
+      <c r="K58" s="94"/>
+      <c r="L58" s="91"/>
+      <c r="M58" s="91"/>
+      <c r="N58" s="91"/>
+      <c r="O58" s="91"/>
+      <c r="P58" s="92"/>
+      <c r="Q58" s="92"/>
+      <c r="R58" s="91"/>
+      <c r="S58" s="91"/>
+      <c r="T58" s="91"/>
+      <c r="U58" s="91"/>
+      <c r="V58" s="93"/>
     </row>
     <row r="59" spans="2:22" ht="19.5" thickBot="1">
       <c r="B59" s="9"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
+      <c r="C59" s="70"/>
+      <c r="D59" s="71"/>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
       <c r="G59" s="38"/>
       <c r="H59" s="9"/>
       <c r="I59" s="43"/>
-      <c r="J59" s="81"/>
-      <c r="K59" s="83"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="84"/>
-      <c r="Q59" s="84"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="34"/>
+      <c r="J59" s="59"/>
+      <c r="K59" s="97"/>
+      <c r="L59" s="98"/>
+      <c r="M59" s="98"/>
+      <c r="N59" s="98"/>
+      <c r="O59" s="98"/>
+      <c r="P59" s="99"/>
+      <c r="Q59" s="99"/>
+      <c r="R59" s="98"/>
+      <c r="S59" s="98"/>
+      <c r="T59" s="98"/>
+      <c r="U59" s="98"/>
+      <c r="V59" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C23:D23"/>
@@ -3773,37 +3848,6 @@
     <mergeCell ref="C32:D32"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3866,64 +3910,64 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="82" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="82" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="70"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="23">
         <v>1</v>
       </c>
@@ -3934,44 +3978,44 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="82"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="82"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="82"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="82"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="82"/>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="70" t="s">
+      <c r="A30" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B30" s="70"/>
+      <c r="B30" s="82"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22" t="s">
@@ -4084,62 +4128,62 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="70" t="s">
+      <c r="A17" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="23">
         <v>0.8</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="70" t="s">
+      <c r="A18" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="23">
         <v>0.6</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="70" t="s">
+      <c r="A19" s="82" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="82"/>
       <c r="C19" s="23">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="70" t="s">
+      <c r="A20" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="23">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="70" t="s">
+      <c r="A21" s="82" t="s">
         <v>50</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="82"/>
       <c r="C21" s="23">
         <v>0.6</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="70"/>
-      <c r="B22" s="70"/>
+      <c r="A22" s="82"/>
+      <c r="B22" s="82"/>
       <c r="C22" s="23"/>
     </row>
     <row r="24" spans="1:3">
@@ -4148,38 +4192,38 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="70" t="s">
+      <c r="A25" s="82" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="70"/>
+      <c r="B25" s="82"/>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="70" t="s">
+      <c r="A26" s="82" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="70"/>
+      <c r="B26" s="82"/>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="70"/>
+      <c r="B27" s="82"/>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="70" t="s">
+      <c r="A28" s="82" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="70"/>
+      <c r="B28" s="82"/>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="70" t="s">
+      <c r="A29" s="82" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="70"/>
+      <c r="B29" s="82"/>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="53"/>
+      <c r="B31" s="53"/>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="22" t="s">
@@ -4218,18 +4262,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4248,229 +4292,229 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="8.75" style="49"/>
+    <col min="1" max="1" width="8.75" style="47"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="47" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="84" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="71"/>
+      <c r="B2" s="84"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="72"/>
+      <c r="B4" s="85"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="85" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="72"/>
+      <c r="B5" s="85"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="47" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="49" t="s">
+      <c r="A11" s="47" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="47" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="49" t="s">
+      <c r="A14" s="47" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B15" s="50"/>
-      <c r="C15" s="50"/>
-      <c r="E15" s="73" t="s">
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="E15" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="73"/>
+      <c r="F15" s="83"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="50"/>
-      <c r="C16" s="50"/>
-      <c r="E16" s="73" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="E16" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="73"/>
+      <c r="F16" s="83"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="50" t="s">
+      <c r="A17" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="E17" s="73" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
+      <c r="E17" s="83" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="73"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="50" t="s">
+      <c r="A18" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="E18" s="73" t="s">
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="E18" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="73"/>
+      <c r="F18" s="83"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="50" t="s">
+      <c r="A19" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="50"/>
-      <c r="E19" s="73" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="E19" s="83" t="s">
         <v>90</v>
       </c>
-      <c r="F19" s="73"/>
+      <c r="F19" s="83"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50"/>
-      <c r="E20" s="73" t="s">
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="E20" s="83" t="s">
         <v>92</v>
       </c>
-      <c r="F20" s="73"/>
+      <c r="F20" s="83"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="50"/>
-      <c r="E21" s="73" t="s">
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="E21" s="83" t="s">
         <v>93</v>
       </c>
-      <c r="F21" s="73"/>
+      <c r="F21" s="83"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="47" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="48" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="48" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="50" t="s">
+      <c r="A27" s="48" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="48" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="48" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="57"/>
+      <c r="A30" s="55"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="47" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="47" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="47" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="47" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="47" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="47" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="49" t="s">
+      <c r="A39" s="47" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="49" t="s">
+      <c r="A40" s="47" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="49" t="s">
+      <c r="A42" s="47" t="s">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4528,16 +4572,16 @@
       <c r="A14" t="s">
         <v>66</v>
       </c>
-      <c r="E14" s="73" t="s">
+      <c r="E14" s="83" t="s">
         <v>82</v>
       </c>
-      <c r="F14" s="73"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="E15" s="54">
+      <c r="E15" s="52">
         <v>0.3</v>
       </c>
       <c r="F15" t="s">
@@ -4548,7 +4592,7 @@
       <c r="A16" t="s">
         <v>103</v>
       </c>
-      <c r="E16" s="54">
+      <c r="E16" s="52">
         <v>0.1</v>
       </c>
       <c r="F16" t="s">
@@ -4559,7 +4603,7 @@
       <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="54">
+      <c r="E17" s="52">
         <v>0.8</v>
       </c>
       <c r="F17" t="s">
@@ -4570,7 +4614,7 @@
       <c r="A18" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="52">
         <v>0.5</v>
       </c>
       <c r="F18" t="s">
@@ -4613,7 +4657,7 @@
       <c r="A23" t="s">
         <v>54</v>
       </c>
-      <c r="E23" s="54" t="s">
+      <c r="E23" s="52" t="s">
         <v>84</v>
       </c>
     </row>
